--- a/test/test_resources/excel_default_sheet_removed_3.xlsx
+++ b/test/test_resources/excel_default_sheet_removed_3.xlsx
@@ -16,15 +16,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="1F000000"/>
+    </font>
+    <font>
+      <color rgb="42000000"/>
+    </font>
+    <font>
+      <color rgb="61000000"/>
+    </font>
+    <font>
+      <color rgb="73000000"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -33,32 +45,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3E0"/>
-        <bgColor rgb="FFFFF3E0"/>
+        <fgColor rgb="FFF44336"/>
+        <bgColor rgb="FFF44336"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF40C4FF"/>
-        <bgColor rgb="FF40C4FF"/>
+        <fgColor rgb="FFE91E63"/>
+        <bgColor rgb="FFE91E63"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEFF41"/>
-        <bgColor rgb="FFEEFF41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7C4DFF"/>
-        <bgColor rgb="FF7C4DFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF03A9F4"/>
-        <bgColor rgb="FF03A9F4"/>
+        <fgColor rgb="FF9C27B0"/>
+        <bgColor rgb="FF9C27B0"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,135 +69,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80D8FF"/>
-        <bgColor rgb="FF80D8FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2FF59"/>
-        <bgColor rgb="FFB2FF59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCBC"/>
-        <bgColor rgb="FFFFCCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80DEEA"/>
-        <bgColor rgb="FF80DEEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAED581"/>
-        <bgColor rgb="FFAED581"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE93D8"/>
-        <bgColor rgb="FFCE93D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3F51B5"/>
         <bgColor rgb="FF3F51B5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3E5FC"/>
-        <bgColor rgb="FFB3E5FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006064"/>
-        <bgColor rgb="FF006064"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1C4E9"/>
-        <bgColor rgb="FFD1C4E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD81B60"/>
-        <bgColor rgb="FFD81B60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF303030"/>
-        <bgColor rgb="FF303030"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4511E"/>
-        <bgColor rgb="FFF4511E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BCD4"/>
-        <bgColor rgb="FF00BCD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1F8E9"/>
-        <bgColor rgb="FFF1F8E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDDC39"/>
-        <bgColor rgb="FFCDDC39"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF5252"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF5252"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF5252"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF5252"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF4081"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF4081"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF4081"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF4081"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE040FB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE040FB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE040FB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE040FB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7C4DFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7C4DFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7C4DFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7C4DFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF536DFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF536DFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF536DFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF536DFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="21" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="5" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -413,87 +399,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="14">
+        <v>12</v>
+      </c>
+      <c r="E3" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="16">
         <v>4</v>
       </c>
-      <c r="C4" s="17">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18">
-        <v>9</v>
-      </c>
-      <c r="E4" s="19">
-        <v>7</v>
+      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18">
+        <v>12</v>
+      </c>
+      <c r="D4" s="19">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22">
-        <v>6</v>
-      </c>
-      <c r="D5" s="23">
-        <v>12</v>
-      </c>
-      <c r="E5" s="24">
-        <v>8</v>
+      <c r="A5" s="21">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23">
+        <v>15</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20</v>
+      </c>
+      <c r="E5" s="25">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
